--- a/src/core/__tests__/data/test-report.xlsx
+++ b/src/core/__tests__/data/test-report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksemenov/Developer/JS/reg2reg/src/services/transform/transformers/__tests__/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksemenov/Developer/JS/reg2reg/src/core/__tests__/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7883CAE-F34E-E343-9338-80D2F3AAE3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E06599-3110-1548-93F5-46597CA12621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
   <si>
     <t>МО.Сведения о поступлениях по лицевым счетам за период</t>
   </si>
@@ -557,12 +557,6 @@
   </si>
   <si>
     <t>1103903849</t>
-  </si>
-  <si>
-    <t>Чижов Дмитрий Викторович</t>
-  </si>
-  <si>
-    <t>Архангельская обл г.Архангельск ул.Авиационная д.6 кв.1</t>
   </si>
   <si>
     <t>12 Главное Управление Министерства обороны 12ГУМО</t>
@@ -1051,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2273,56 +2267,52 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y14" s="3">
         <v>4000</v>
@@ -2330,7 +2320,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3">
@@ -2733,56 +2723,52 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="U15" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y15" s="3">
         <v>1000</v>
@@ -2790,7 +2776,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3">
@@ -3195,45 +3181,41 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -3244,7 +3226,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3">
@@ -3650,31 +3632,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="AG11:FD11"/>
     <mergeCell ref="FE11:FH11"/>
     <mergeCell ref="Z11:Z12"/>
@@ -3682,6 +3639,31 @@
     <mergeCell ref="AB11:AB12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
